--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/append_pcc_dmrc_ad.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/append_pcc_dmrc_ad.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E70CAD-18F4-4D9B-9B6E-F64A38633DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D293045-8C7C-43E4-B258-6BECDF52945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="11" r:id="rId1"/>
-    <sheet name="Residual_Exp_AD" sheetId="12" r:id="rId2"/>
-    <sheet name="Residual_Gaus_AD" sheetId="14" r:id="rId3"/>
-    <sheet name="Residual_PL_AD" sheetId="15" r:id="rId4"/>
-    <sheet name="Residual_RQ_AD" sheetId="16" r:id="rId5"/>
+    <sheet name="Exp_ad" sheetId="24" r:id="rId2"/>
+    <sheet name="Gauss_ad" sheetId="25" r:id="rId3"/>
+    <sheet name="Inverse_ad" sheetId="26" r:id="rId4"/>
+    <sheet name="PL_ad" sheetId="27" r:id="rId5"/>
+    <sheet name="RQ_ad" sheetId="28" r:id="rId6"/>
+    <sheet name="GG_ad" sheetId="29" r:id="rId7"/>
+    <sheet name="Sig_ad" sheetId="30" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="34">
   <si>
     <t>Generalized Surface Laplacian</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +141,10 @@
   </si>
   <si>
     <t>Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F3A2F-6837-41B1-B2B8-CB791D6423A8}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,6 +1469,39 @@
         <v xml:space="preserve">    95.693215339233, 94.5722713864307, 95.7522123893805, 97.0501474926254, 97.3182293964481, 90.8263912317581, 69.2454086973071,</v>
       </c>
     </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>93.101364775358491</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>91.326663725464769</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>89.722561037148537</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>83.857204647099024</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>76.242949045118621</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>60.402777417336374</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>47.740900296138648</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1469,10 +1509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2174D7DB-62E5-4D30-AD2F-E09572D10E7A}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10D0C7-69AE-4469-A05B-0B302453CFA4}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -2403,6 +2445,39 @@
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    97.3746312684366, 96.4306784660767, 97.1091445427729, 97.8171091445428, 96.1695170373446, 85.355496154811, 69.7196342528915,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>92.79746076234801</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.09972981311833</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>91.994123363235545</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>89.541535826434497</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>81.67196083011099</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>63.76238837129501</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>48.357978875249778</v>
       </c>
     </row>
   </sheetData>
@@ -2412,10 +2487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1006BFEB-410B-4530-8AD6-FDC255E0C64C}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A2F006-4D3F-4163-993A-6602ECBB1692}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -3346,6 +3423,39 @@
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    95.929203539823, 95.2507374631269, 95.8407079646018, 96.7846607669617, 96.4898485281015, 91.4309812368619, 77.8741165581017,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>92.97743636767332</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.087691069991962</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>91.488331790644082</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>87.817498421266592</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>80.833879762512368</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>68.633586795733521</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>51.679287883113162</v>
       </c>
     </row>
   </sheetData>
@@ -3355,10 +3465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D713A-2DD1-4851-A8A9-37A69A9E2053}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2CD6B-BA11-44FA-93F5-A7001D9F99E3}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -3396,29 +3508,29 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>86.696165191740405</v>
+        <v>88.495575221238937</v>
       </c>
       <c r="D2">
-        <v>89.705706796771594</v>
+        <v>88.702064896755161</v>
       </c>
       <c r="E2">
-        <v>84.955752212389385</v>
+        <v>87.846780681493783</v>
       </c>
       <c r="F2">
-        <v>84.542945873234203</v>
+        <v>89.73451327433628</v>
       </c>
       <c r="G2">
-        <v>79.840656061038587</v>
+        <v>82.538776286992103</v>
       </c>
       <c r="H2">
-        <v>67.517539079057784</v>
+        <v>69.144975302554514</v>
       </c>
       <c r="I2">
-        <v>46.958710715490618</v>
+        <v>57.907680862291187</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
-        <v xml:space="preserve">    86.6961651917404, 89.7057067967716, 84.9557522123894, 84.5429458732342, 79.8406560610386, 67.5175390790578, 46.9587107154906,</v>
+        <v xml:space="preserve">    88.4955752212389, 88.7020648967552, 87.8467806814938, 89.7345132743363, 82.5387762869921, 69.1449753025545, 57.9076808622912,</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3426,29 +3538,29 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>88.820058997050154</v>
+        <v>93.510324483775804</v>
       </c>
       <c r="D3">
-        <v>93.687315634218294</v>
+        <v>92.241887905604727</v>
       </c>
       <c r="E3">
-        <v>93.48082595870207</v>
+        <v>92.949852507374629</v>
       </c>
       <c r="F3">
-        <v>91.445427728613566</v>
+        <v>90.029498525073748</v>
       </c>
       <c r="G3">
-        <v>90.147492625368727</v>
+        <v>85.488628794366733</v>
       </c>
       <c r="H3">
-        <v>66.929817731987299</v>
+        <v>65.124611804600391</v>
       </c>
       <c r="I3">
-        <v>56.15602211091791</v>
+        <v>52.167925328073771</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    88.8200589970502, 93.6873156342183, 93.4808259587021, 91.4454277286136, 90.1474926253687, 66.9298177319873, 56.1560221109179,</v>
+        <v xml:space="preserve">    93.5103244837758, 92.2418879056047, 92.9498525073746, 90.0294985250737, 85.4886287943667, 65.1246118046004, 52.1679253280738,</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3456,29 +3568,29 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>90.147492625368727</v>
+        <v>89.262536873156336</v>
       </c>
       <c r="D4">
-        <v>90.029498525073748</v>
+        <v>88.554572271386434</v>
       </c>
       <c r="E4">
-        <v>90.206489675516224</v>
+        <v>87.787610619469021</v>
       </c>
       <c r="F4">
-        <v>89.233038348082601</v>
+        <v>86.843657817109147</v>
       </c>
       <c r="G4">
-        <v>88.34808259587021</v>
+        <v>85.073746312684364</v>
       </c>
       <c r="H4">
-        <v>68.015380755888899</v>
+        <v>76.562340504675646</v>
       </c>
       <c r="I4">
-        <v>44.611112552876747</v>
+        <v>61.877351880206582</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    90.1474926253687, 90.0294985250737, 90.2064896755162, 89.2330383480826, 88.3480825958702, 68.0153807558889, 44.6111125528767,</v>
+        <v xml:space="preserve">    89.2625368731563, 88.5545722713864, 87.787610619469, 86.8436578171091, 85.0737463126844, 76.5623405046756, 61.8773518802066,</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3486,29 +3598,29 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>92.831858407079636</v>
+        <v>91.592920353982294</v>
       </c>
       <c r="D5">
-        <v>92.330383480825958</v>
+        <v>91.946902654867259</v>
       </c>
       <c r="E5">
-        <v>92.359882005899706</v>
+        <v>92.005899705014741</v>
       </c>
       <c r="F5">
-        <v>91.474926253687315</v>
+        <v>90.208392806166145</v>
       </c>
       <c r="G5">
-        <v>88.731563421828909</v>
+        <v>83.488438481301742</v>
       </c>
       <c r="H5">
-        <v>71.314890267216839</v>
+        <v>69.450168254050638</v>
       </c>
       <c r="I5">
-        <v>55.489839877507578</v>
+        <v>55.72323289993858</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    92.8318584070796, 92.330383480826, 92.3598820058997, 91.4749262536873, 88.7315634218289, 71.3148902672168, 55.4898398775076,</v>
+        <v xml:space="preserve">    91.5929203539823, 91.9469026548673, 92.0058997050147, 90.2083928061661, 83.4884384813017, 69.4501682540506, 55.7232328999386,</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3516,29 +3628,29 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>95.103244837758112</v>
+        <v>94.100294985250727</v>
       </c>
       <c r="D6">
-        <v>94.424778761061958</v>
+        <v>95.575221238938042</v>
       </c>
       <c r="E6">
-        <v>94.483775811209441</v>
+        <v>95.044247787610615</v>
       </c>
       <c r="F6">
-        <v>94.955752212389385</v>
+        <v>90.45926002820093</v>
       </c>
       <c r="G6">
-        <v>93.628318584070797</v>
+        <v>91.003122864384636</v>
       </c>
       <c r="H6">
-        <v>71.929341949324822</v>
+        <v>65.178591510307186</v>
       </c>
       <c r="I6">
-        <v>54.064568032595432</v>
+        <v>47.704997448074813</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    95.1032448377581, 94.424778761062, 94.4837758112094, 94.9557522123894, 93.6283185840708, 71.9293419493248, 54.0645680325954,</v>
+        <v xml:space="preserve">    94.1002949852507, 95.575221238938, 95.0442477876106, 90.4592600282009, 91.0031228643846, 65.1785915103072, 47.7049974480748,</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3546,29 +3658,29 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>92.271559442555741</v>
+        <v>92.536873156342182</v>
       </c>
       <c r="D7">
-        <v>92.536873156342182</v>
+        <v>93.510497495653084</v>
       </c>
       <c r="E7">
-        <v>89.616519174041301</v>
+        <v>86.78466076696165</v>
       </c>
       <c r="F7">
-        <v>93.628318584070797</v>
+        <v>90.147492625368727</v>
       </c>
       <c r="G7">
-        <v>86.902654867256643</v>
+        <v>85.259561068867384</v>
       </c>
       <c r="H7">
-        <v>63.151238332511532</v>
+        <v>59.768164084464402</v>
       </c>
       <c r="I7">
-        <v>49.297744790179848</v>
+        <v>49.097656554122437</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    92.2715594425557, 92.5368731563422, 89.6165191740413, 93.6283185840708, 86.9026548672566, 63.1512383325115, 49.2977447901798,</v>
+        <v xml:space="preserve">    92.5368731563422, 93.5104974956531, 86.7846607669617, 90.1474926253687, 85.2595610688674, 59.7681640844644, 49.0976565541224,</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3576,29 +3688,29 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>91.91740412979351</v>
+        <v>91.327433628318587</v>
       </c>
       <c r="D8">
-        <v>91.710914454277287</v>
+        <v>92.035398230088504</v>
       </c>
       <c r="E8">
-        <v>92.094395280236</v>
+        <v>92.684365781710909</v>
       </c>
       <c r="F8">
-        <v>92.477876106194685</v>
+        <v>91.150615489753378</v>
       </c>
       <c r="G8">
-        <v>90.324483775811217</v>
+        <v>87.552314466388125</v>
       </c>
       <c r="H8">
-        <v>78.157337001185141</v>
+        <v>78.082336352390584</v>
       </c>
       <c r="I8">
-        <v>70.718431820344478</v>
+        <v>67.445825655931273</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    91.9174041297935, 91.7109144542773, 92.094395280236, 92.4778761061947, 90.3244837758112, 78.1573370011851, 70.7184318203445,</v>
+        <v xml:space="preserve">    91.3274336283186, 92.0353982300885, 92.6843657817109, 91.1506154897534, 87.5523144663881, 78.0823363523906, 67.4458256559313,</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3606,29 +3718,29 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>95.958702064896755</v>
+        <v>96.578171091445427</v>
       </c>
       <c r="D9">
-        <v>94.572271386430685</v>
+        <v>94.985250737463133</v>
       </c>
       <c r="E9">
-        <v>95.309734513274336</v>
+        <v>94.749262536873147</v>
       </c>
       <c r="F9">
-        <v>95.044766823242412</v>
+        <v>95.870379501552776</v>
       </c>
       <c r="G9">
-        <v>95.191740412979357</v>
+        <v>91.033313436967461</v>
       </c>
       <c r="H9">
-        <v>69.464614745802294</v>
+        <v>82.052180382183238</v>
       </c>
       <c r="I9">
-        <v>55.888286230849737</v>
+        <v>60.161420081488593</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    95.9587020648968, 94.5722713864307, 95.3097345132743, 95.0447668232424, 95.1917404129794, 69.4646147458023, 55.8882862308497,</v>
+        <v xml:space="preserve">    96.5781710914454, 94.9852507374631, 94.7492625368731, 95.8703795015528, 91.0333134369675, 82.0521803821832, 60.1614200814886,</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3636,29 +3748,29 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>96.843657817109147</v>
+        <v>97.374631268436588</v>
       </c>
       <c r="D10">
-        <v>97.315634218289091</v>
+        <v>97.109144542772853</v>
       </c>
       <c r="E10">
-        <v>97.227138643067846</v>
+        <v>97.964601769911511</v>
       </c>
       <c r="F10">
-        <v>96.460176991150448</v>
+        <v>95.280235988200587</v>
       </c>
       <c r="G10">
-        <v>94.247787610619469</v>
+        <v>93.687315634218294</v>
       </c>
       <c r="H10">
-        <v>76.715715533871403</v>
+        <v>78.099897057933021</v>
       </c>
       <c r="I10">
-        <v>62.699331309094383</v>
+        <v>59.649564442598987</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    96.8436578171091, 97.3156342182891, 97.2271386430678, 96.4601769911504, 94.2477876106195, 76.7157155338714, 62.6993313090944,</v>
+        <v xml:space="preserve">    97.3746312684366, 97.1091445427729, 97.9646017699115, 95.2802359882006, 93.6873156342183, 78.099897057933, 59.649564442599,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3666,29 +3778,29 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>93.421828908554573</v>
+        <v>94.86725663716814</v>
       </c>
       <c r="D11">
-        <v>93.628318584070797</v>
+        <v>96.637168141592923</v>
       </c>
       <c r="E11">
-        <v>93.274336283185832</v>
+        <v>95.87020648967551</v>
       </c>
       <c r="F11">
-        <v>92.802359882005902</v>
+        <v>95.073746312684364</v>
       </c>
       <c r="G11">
-        <v>90.413325374786979</v>
+        <v>91.416102215417098</v>
       </c>
       <c r="H11">
-        <v>72.089291429856672</v>
+        <v>82.49362018702584</v>
       </c>
       <c r="I11">
-        <v>52.767497988736928</v>
+        <v>51.68124291732628</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.4218289085546, 93.6283185840708, 93.2743362831858, 92.8023598820059, 90.413325374787, 72.0892914298567, 52.7674979887369,</v>
+        <v xml:space="preserve">    94.8672566371681, 96.6371681415929, 95.8702064896755, 95.0737463126844, 91.4161022154171, 82.4936201870258, 51.6812429173263,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3696,29 +3808,29 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>88.495748233116203</v>
+        <v>90.619815050303202</v>
       </c>
       <c r="D12">
-        <v>88.643067846607664</v>
+        <v>89.203712834886119</v>
       </c>
       <c r="E12">
-        <v>88.08259587020649</v>
+        <v>88.702064896755161</v>
       </c>
       <c r="F12">
-        <v>88.64324085848493</v>
+        <v>87.908026886045732</v>
       </c>
       <c r="G12">
-        <v>85.604719764011804</v>
+        <v>85.252467581899495</v>
       </c>
       <c r="H12">
-        <v>67.659841348108543</v>
+        <v>66.270642479606224</v>
       </c>
       <c r="I12">
-        <v>49.965484130485557</v>
+        <v>44.617427486396942</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    88.4957482331162, 88.6430678466077, 88.0825958702065, 88.6432408584849, 85.6047197640118, 67.6598413481085, 49.9654841304856,</v>
+        <v xml:space="preserve">    90.6198150503032, 89.2037128348861, 88.7020648967552, 87.9080268860457, 85.2524675818995, 66.2706424796062, 44.6174274863969,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3726,29 +3838,29 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>93.864306784660769</v>
+        <v>95.516224188790559</v>
       </c>
       <c r="D13">
-        <v>94.159292035398238</v>
+        <v>95.221238938053105</v>
       </c>
       <c r="E13">
-        <v>93.539823008849552</v>
+        <v>93.982300884955748</v>
       </c>
       <c r="F13">
-        <v>95.103763873389909</v>
+        <v>92.625368731563427</v>
       </c>
       <c r="G13">
-        <v>91.238938053097343</v>
+        <v>88.525419770067217</v>
       </c>
       <c r="H13">
-        <v>70.668517893753403</v>
+        <v>72.748293670360482</v>
       </c>
       <c r="I13">
-        <v>51.567574113962927</v>
+        <v>51.914116904125457</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.8643067846608, 94.1592920353982, 93.5398230088496, 95.1037638733899, 91.2389380530973, 70.6685178937534, 51.5675741139629,</v>
+        <v xml:space="preserve">    95.5162241887906, 95.2212389380531, 93.9823008849557, 92.6253687315634, 88.5254197700672, 72.7482936703605, 51.9141169041255,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3756,29 +3868,29 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>92.271386430678461</v>
+        <v>91.91740412979351</v>
       </c>
       <c r="D14">
-        <v>91.799410029498532</v>
+        <v>91.238938053097343</v>
       </c>
       <c r="E14">
-        <v>91.799410029498532</v>
+        <v>90.147492625368727</v>
       </c>
       <c r="F14">
-        <v>90.26548672566372</v>
+        <v>88.908554572271385</v>
       </c>
       <c r="G14">
-        <v>91.150442477876112</v>
+        <v>86.017872126921517</v>
       </c>
       <c r="H14">
-        <v>67.541328212181753</v>
+        <v>60.076211731935388</v>
       </c>
       <c r="I14">
-        <v>44.256092180728203</v>
+        <v>52.042664728933637</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    92.2713864306785, 91.7994100294985, 91.7994100294985, 90.2654867256637, 91.1504424778761, 67.5413282121818, 44.2560921807282,</v>
+        <v xml:space="preserve">    91.9174041297935, 91.2389380530973, 90.1474926253687, 88.9085545722714, 86.0178721269215, 60.0762117319354, 52.0426647289336,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3786,29 +3898,29 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>85.191913424856622</v>
+        <v>92.743362831858406</v>
       </c>
       <c r="D15">
-        <v>82.832896478343244</v>
+        <v>90.885128764089657</v>
       </c>
       <c r="E15">
-        <v>79.528196610697321</v>
+        <v>83.097518144620636</v>
       </c>
       <c r="F15">
-        <v>88.090554416560707</v>
+        <v>85.545895725741573</v>
       </c>
       <c r="G15">
-        <v>89.262882896910881</v>
+        <v>84.516042526319438</v>
       </c>
       <c r="H15">
-        <v>67.569615654114656</v>
+        <v>60.840232181939292</v>
       </c>
       <c r="I15">
-        <v>48.707428264950387</v>
+        <v>51.058659676986828</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    85.1919134248566, 82.8328964783432, 79.5281966106973, 88.0905544165607, 89.2628828969109, 67.5696156541147, 48.7074282649504,</v>
+        <v xml:space="preserve">    92.7433628318584, 90.8851287640897, 83.0975181446206, 85.5458957257416, 84.5160425263194, 60.8402321819393, 51.0586596769868,</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3816,29 +3928,29 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>86.489675516224196</v>
+        <v>92.979351032448378</v>
       </c>
       <c r="D16">
-        <v>89.793510324483776</v>
+        <v>90.383480825958699</v>
       </c>
       <c r="E16">
-        <v>90.471976401179944</v>
+        <v>90.825958702064895</v>
       </c>
       <c r="F16">
-        <v>83.274336283185832</v>
+        <v>87.138989091601132</v>
       </c>
       <c r="G16">
-        <v>86.578171091445427</v>
+        <v>82.567582764556775</v>
       </c>
       <c r="H16">
-        <v>66.12418792550109</v>
+        <v>60.953381949670849</v>
       </c>
       <c r="I16">
-        <v>52.69604408342633</v>
+        <v>45.60489277588907</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    86.4896755162242, 89.7935103244838, 90.4719764011799, 83.2743362831858, 86.5781710914454, 66.1241879255011, 52.6960440834263,</v>
+        <v xml:space="preserve">    92.9793510324484, 90.3834808259587, 90.8259587020649, 87.1389890916011, 82.5675827645568, 60.9533819496708, 45.6048927758891,</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -3846,29 +3958,29 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>94.778761061946895</v>
+        <v>96.755162241887916</v>
       </c>
       <c r="D17">
-        <v>93.864306784660769</v>
+        <v>95.545722713864308</v>
       </c>
       <c r="E17">
-        <v>95.398230088495581</v>
+        <v>95.663716814159301</v>
       </c>
       <c r="F17">
-        <v>94.39528023598821</v>
+        <v>93.598820058997063</v>
       </c>
       <c r="G17">
-        <v>90.013667938303968</v>
+        <v>91.774236801356409</v>
       </c>
       <c r="H17">
-        <v>63.949082604520797</v>
+        <v>70.616614330573796</v>
       </c>
       <c r="I17">
-        <v>56.013200806235353</v>
+        <v>55.056791148712357</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    94.7787610619469, 93.8643067846608, 95.3982300884956, 94.3952802359882, 90.013667938304, 63.9490826045208, 56.0132008062354,</v>
+        <v xml:space="preserve">    96.7551622418879, 95.5457227138643, 95.6637168141593, 93.5988200589971, 91.7742368013564, 70.6166143305738, 55.0567911487124,</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -3876,29 +3988,29 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>94.395453247865476</v>
+        <v>93.687315634218294</v>
       </c>
       <c r="D18">
-        <v>90.796633188868412</v>
+        <v>92.950025519251909</v>
       </c>
       <c r="E18">
-        <v>93.895362416629908</v>
+        <v>92.625714755317944</v>
       </c>
       <c r="F18">
-        <v>93.245875829375692</v>
+        <v>87.939601553646668</v>
       </c>
       <c r="G18">
-        <v>80.022924073737656</v>
+        <v>84.849695931625703</v>
       </c>
       <c r="H18">
-        <v>64.668292978312962</v>
+        <v>65.029887801797599</v>
       </c>
       <c r="I18">
-        <v>39.23961279941868</v>
+        <v>51.802524243289312</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    94.3954532478655, 90.7966331888684, 93.8953624166299, 93.2458758293757, 80.0229240737377, 64.668292978313, 39.2396127994187,</v>
+        <v xml:space="preserve">    93.6873156342183, 92.9500255192519, 92.6257147553179, 87.9396015536467, 84.8496959316257, 65.0298878017976, 51.8025242432893,</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -3906,29 +4018,29 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>94.896755162241888</v>
+        <v>96.814159292035399</v>
       </c>
       <c r="D19">
-        <v>95.929203539823021</v>
+        <v>97.020648967551622</v>
       </c>
       <c r="E19">
-        <v>95.663716814159301</v>
+        <v>96.578171091445427</v>
       </c>
       <c r="F19">
-        <v>96.106194690265482</v>
+        <v>95.929376551700273</v>
       </c>
       <c r="G19">
-        <v>92.743362831858406</v>
+        <v>94.336283185840699</v>
       </c>
       <c r="H19">
-        <v>64.717947387088117</v>
+        <v>70.613500116783015</v>
       </c>
       <c r="I19">
-        <v>49.348610282095862</v>
+        <v>57.92368446093824</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    94.8967551622419, 95.929203539823, 95.6637168141593, 96.1061946902655, 92.7433628318584, 64.7179473870881, 49.3486102820959,</v>
+        <v xml:space="preserve">    96.8141592920354, 97.0206489675516, 96.5781710914454, 95.9293765517003, 94.3362831858407, 70.613500116783, 57.9236844609382,</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -3936,29 +4048,29 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>91.740412979351035</v>
+        <v>92.389380530973455</v>
       </c>
       <c r="D20">
-        <v>92.271386430678461</v>
+        <v>90.943952802359874</v>
       </c>
       <c r="E20">
-        <v>91.268436578171091</v>
+        <v>90.91445427728614</v>
       </c>
       <c r="F20">
-        <v>88.43657817109144</v>
+        <v>88.879229059074902</v>
       </c>
       <c r="G20">
-        <v>88.525073746312685</v>
+        <v>75.824271836261559</v>
       </c>
       <c r="H20">
-        <v>69.554494416041649</v>
+        <v>62.212821910224143</v>
       </c>
       <c r="I20">
-        <v>53.253661363852629</v>
+        <v>43.883424597098603</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    91.740412979351, 92.2713864306785, 91.2684365781711, 88.4365781710914, 88.5250737463127, 69.5544944160416, 53.2536613638526,</v>
+        <v xml:space="preserve">    92.3893805309735, 90.9439528023599, 90.9144542772861, 88.8792290590749, 75.8242718362616, 62.2128219102241, 43.8834245970986,</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -3966,29 +4078,29 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>84.838277147726188</v>
+        <v>85.280668517893758</v>
       </c>
       <c r="D21">
-        <v>86.87454043720102</v>
+        <v>86.106713725897279</v>
       </c>
       <c r="E21">
-        <v>87.970657185615806</v>
+        <v>88.643586882239475</v>
       </c>
       <c r="F21">
-        <v>85.019247571345772</v>
+        <v>89.499217121255384</v>
       </c>
       <c r="G21">
-        <v>78.138911236256376</v>
+        <v>76.558447737437177</v>
       </c>
       <c r="H21">
-        <v>64.629105788112355</v>
+        <v>59.890916011384178</v>
       </c>
       <c r="I21">
-        <v>47.106376352736618</v>
+        <v>40.184776684919413</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    84.8382771477262, 86.874540437201, 87.9706571856158, 85.0192475713458, 78.1389112362564, 64.6291057881124, 47.1063763527366,</v>
+        <v xml:space="preserve">    85.2806685178938, 86.1067137258973, 88.6435868822395, 89.4992171212554, 76.5584477374372, 59.8909160113842, 40.1847766849194,</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -3996,29 +4108,29 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>86.756546336906041</v>
+        <v>91.506154897533719</v>
       </c>
       <c r="D22">
-        <v>88.731563421828909</v>
+        <v>92.095606363376845</v>
       </c>
       <c r="E22">
-        <v>88.525073746312685</v>
+        <v>91.091618439605881</v>
       </c>
       <c r="F22">
-        <v>87.761399320063319</v>
+        <v>90.626735525393812</v>
       </c>
       <c r="G22">
-        <v>86.935094594243893</v>
+        <v>87.618578015380763</v>
       </c>
       <c r="H22">
-        <v>73.116722462997089</v>
+        <v>75.307052829176726</v>
       </c>
       <c r="I22">
-        <v>64.616389415133341</v>
+        <v>58.950942482201398</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    86.756546336906, 88.7315634218289, 88.5250737463127, 87.7613993200633, 86.9350945942439, 73.1167224629971, 64.6163894151333,</v>
+        <v xml:space="preserve">    91.5061548975337, 92.0956063633768, 91.0916184396059, 90.6267355253938, 87.6185780153808, 75.3070528291767, 58.9509424822014,</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -4026,29 +4138,29 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>91.002949852507385</v>
+        <v>92.359882005899706</v>
       </c>
       <c r="D23">
-        <v>90.471976401179944</v>
+        <v>92.359882005899706</v>
       </c>
       <c r="E23">
-        <v>90.973451327433622</v>
+        <v>90.088495575221231</v>
       </c>
       <c r="F23">
-        <v>91.297935103244839</v>
+        <v>91.445946764245363</v>
       </c>
       <c r="G23">
-        <v>89.469372572427091</v>
+        <v>87.315807230166357</v>
       </c>
       <c r="H23">
-        <v>61.648024636891321</v>
+        <v>67.3479874393377</v>
       </c>
       <c r="I23">
-        <v>47.816590108910972</v>
+        <v>56.634572963433939</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    91.0029498525074, 90.4719764011799, 90.9734513274336, 91.2979351032448, 89.4693725724271, 61.6480246368913, 47.816590108911,</v>
+        <v xml:space="preserve">    92.3598820058997, 92.3598820058997, 90.0884955752212, 91.4459467642454, 87.3158072301664, 67.3479874393377, 56.6345729634339,</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -4056,29 +4168,29 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>93.362831858407077</v>
+        <v>94.483775811209441</v>
       </c>
       <c r="D24">
-        <v>93.74631268436579</v>
+        <v>93.156342182890853</v>
       </c>
       <c r="E24">
-        <v>93.126843657817105</v>
+        <v>91.946902654867259</v>
       </c>
       <c r="F24">
-        <v>92.949852507374629</v>
+        <v>90.766961651917399</v>
       </c>
       <c r="G24">
-        <v>90.855457227138643</v>
+        <v>88.761061946902657</v>
       </c>
       <c r="H24">
-        <v>63.267848337788386</v>
+        <v>65.31656848242632</v>
       </c>
       <c r="I24">
-        <v>54.269673613093538</v>
+        <v>41.132535748579137</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.3628318584071, 93.7463126843658, 93.1268436578171, 92.9498525073746, 90.8554572271386, 63.2678483377884, 54.2696736130935,</v>
+        <v xml:space="preserve">    94.4837758112094, 93.1563421828909, 91.9469026548673, 90.7669616519174, 88.7610619469027, 65.3165684824263, 41.1325357485791,</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -4086,29 +4198,29 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>93.392330383480825</v>
+        <v>94.454277286135692</v>
       </c>
       <c r="D25">
-        <v>92.713864306784657</v>
+        <v>91.769911504424769</v>
       </c>
       <c r="E25">
-        <v>91.032448377581119</v>
+        <v>91.002949852507371</v>
       </c>
       <c r="F25">
-        <v>89.380530973451329</v>
+        <v>89.469026548672574</v>
       </c>
       <c r="G25">
-        <v>86.873156342182895</v>
+        <v>78.057768665818912</v>
       </c>
       <c r="H25">
-        <v>62.942326490713583</v>
+        <v>59.888320833225201</v>
       </c>
       <c r="I25">
-        <v>50.587202311438681</v>
+        <v>50.040398273341467</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    93.3923303834808, 92.7138643067847, 91.0324483775811, 89.3805309734513, 86.8731563421829, 62.9423264907136, 50.5872023114387,</v>
+        <v xml:space="preserve">    94.4542772861357, 91.7699115044248, 91.0029498525074, 89.4690265486726, 78.0577686658189, 59.8883208332252, 50.0403982733415,</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -4116,29 +4228,29 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>90.531146463204692</v>
+        <v>92.83185840707965</v>
       </c>
       <c r="D26">
-        <v>91.35779721277865</v>
+        <v>93.274336283185832</v>
       </c>
       <c r="E26">
-        <v>89.764011799410028</v>
+        <v>92.182890855457231</v>
       </c>
       <c r="F26">
-        <v>92.241887905604727</v>
+        <v>92.83185840707965</v>
       </c>
       <c r="G26">
-        <v>90.82734279708302</v>
+        <v>90.177856209828803</v>
       </c>
       <c r="H26">
-        <v>74.269933130909436</v>
+        <v>78.697999117639426</v>
       </c>
       <c r="I26">
-        <v>63.080909004403154</v>
+        <v>68.132942326490706</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    90.5311464632047, 91.3577972127786, 89.76401179941, 92.2418879056047, 90.827342797083, 74.2699331309094, 63.0809090044032,</v>
+        <v xml:space="preserve">    92.8318584070797, 93.2743362831858, 92.1828908554572, 92.8318584070797, 90.1778562098288, 78.6979991176394, 68.1329423264907,</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -4146,29 +4258,29 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>83.008849557522126</v>
+        <v>84.188790560471972</v>
       </c>
       <c r="D27">
-        <v>81.946902654867259</v>
+        <v>84.247787610619469</v>
       </c>
       <c r="E27">
-        <v>81.802697255166578</v>
+        <v>84.159292035398238</v>
       </c>
       <c r="F27">
-        <v>82.743362831858406</v>
+        <v>82.478049118071951</v>
       </c>
       <c r="G27">
-        <v>73.569321533923301</v>
+        <v>80.796460176991147</v>
       </c>
       <c r="H27">
-        <v>61.201048451976227</v>
+        <v>61.859704668725513</v>
       </c>
       <c r="I27">
-        <v>51.150442477876098</v>
+        <v>57.001271637297897</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    83.0088495575221, 81.9469026548673, 81.8026972551666, 82.7433628318584, 73.5693215339233, 61.2010484519762, 51.1504424778761,</v>
+        <v xml:space="preserve">    84.188790560472, 84.2477876106195, 84.1592920353982, 82.478049118072, 80.7964601769911, 61.8597046687255, 57.0012716372979,</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -4176,29 +4288,29 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>87.492625368731552</v>
+        <v>87.286135693215343</v>
       </c>
       <c r="D28">
-        <v>86.371681415929203</v>
+        <v>85.60471976401179</v>
       </c>
       <c r="E28">
-        <v>85.191913424856608</v>
+        <v>84.837931123971671</v>
       </c>
       <c r="F28">
-        <v>85.604892775889056</v>
+        <v>84.985250737463133</v>
       </c>
       <c r="G28">
-        <v>84.779280097578706</v>
+        <v>82.773034368809419</v>
       </c>
       <c r="H28">
-        <v>58.649209768250593</v>
+        <v>65.773319838406906</v>
       </c>
       <c r="I28">
-        <v>51.151134525385167</v>
+        <v>56.535004628067711</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    87.4926253687316, 86.3716814159292, 85.1919134248566, 85.6048927758891, 84.7792800975787, 58.6492097682506, 51.1511345253852,</v>
+        <v xml:space="preserve">    87.2861356932153, 85.6047197640118, 84.8379311239717, 84.9852507374631, 82.7730343688094, 65.7733198384069, 56.5350046280677,</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -4206,29 +4318,29 @@
         <v>28</v>
       </c>
       <c r="C29">
+        <v>99.262536873156336</v>
+      </c>
+      <c r="D29">
         <v>98.938053097345133</v>
       </c>
-      <c r="D29">
-        <v>98.525073746312685</v>
-      </c>
       <c r="E29">
-        <v>98.053097345132741</v>
+        <v>98.289085545722713</v>
       </c>
       <c r="F29">
-        <v>98.495575221238937</v>
+        <v>96.78466076696165</v>
       </c>
       <c r="G29">
-        <v>96.047716675749797</v>
+        <v>96.166229811676573</v>
       </c>
       <c r="H29">
-        <v>90.593776762774766</v>
+        <v>77.276879557781641</v>
       </c>
       <c r="I29">
-        <v>89.772662393273293</v>
+        <v>58.249206308013051</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    98.9380530973451, 98.5250737463127, 98.0530973451327, 98.4955752212389, 96.0477166757498, 90.5937767627748, 89.7726623932733,</v>
+        <v xml:space="preserve">    99.2625368731563, 98.9380530973451, 98.2890855457227, 96.7846607669617, 96.1662298116766, 77.2768795577816, 58.2492063080131,</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -4236,29 +4348,29 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>99.233038348082601</v>
+        <v>99.380530973451329</v>
       </c>
       <c r="D30">
-        <v>98.702064896755161</v>
+        <v>99.380530973451329</v>
       </c>
       <c r="E30">
-        <v>98.849557522123888</v>
+        <v>98.908554572271385</v>
       </c>
       <c r="F30">
-        <v>99.144542772861357</v>
+        <v>97.463126843657818</v>
       </c>
       <c r="G30">
-        <v>98.112094395280238</v>
+        <v>93.864306784660769</v>
       </c>
       <c r="H30">
-        <v>89.85596761217657</v>
+        <v>79.60760906236213</v>
       </c>
       <c r="I30">
-        <v>87.44366300746546</v>
+        <v>71.423109196446347</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    99.2330383480826, 98.7020648967552, 98.8495575221239, 99.1445427728614, 98.1120943952802, 89.8559676121766, 87.4436630074655,</v>
+        <v xml:space="preserve">    99.3805309734513, 99.3805309734513, 98.9085545722714, 97.4631268436578, 93.8643067846608, 79.6076090623621, 71.4231091964463,</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -4266,29 +4378,62 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>95.516224188790559</v>
+        <v>94.778761061946895</v>
       </c>
       <c r="D31">
-        <v>96.548672566371678</v>
+        <v>95.752212389380531</v>
       </c>
       <c r="E31">
-        <v>97.168141592920364</v>
+        <v>94.719764011799413</v>
       </c>
       <c r="F31">
-        <v>97.109144542772853</v>
+        <v>95.309734513274336</v>
       </c>
       <c r="G31">
-        <v>96.430851477953951</v>
+        <v>96.519866088806992</v>
       </c>
       <c r="H31">
-        <v>92.806685178937528</v>
+        <v>92.456855163106951</v>
       </c>
       <c r="I31">
-        <v>91.926227735534042</v>
+        <v>68.416162769574129</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    95.5162241887906, 96.5486725663717, 97.1681415929204, 97.1091445427729, 96.430851477954, 92.8066851789375, 91.926227735534,</v>
+        <v xml:space="preserve">    94.7787610619469, 95.7522123893805, 94.7197640117994, 95.3097345132743, 96.519866088807, 92.456855163107, 68.4161627695741,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>92.962718823980609</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.579235114490601</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>91.736531746237688</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>90.831074086569359</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>86.960486970763881</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>69.958056153888293</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>54.800733570359618</v>
       </c>
     </row>
   </sheetData>
@@ -4298,10 +4443,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50462A5E-815A-456E-924B-DDF08B856179}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF2739-6BA5-4D32-A6DB-0ED020A8CAA9}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -4339,6 +4486,984 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>86.696165191740405</v>
+      </c>
+      <c r="D2">
+        <v>89.705706796771594</v>
+      </c>
+      <c r="E2">
+        <v>84.955752212389385</v>
+      </c>
+      <c r="F2">
+        <v>84.542945873234203</v>
+      </c>
+      <c r="G2">
+        <v>79.840656061038587</v>
+      </c>
+      <c r="H2">
+        <v>67.517539079057784</v>
+      </c>
+      <c r="I2">
+        <v>46.958710715490618</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    86.6961651917404, 89.7057067967716, 84.9557522123894, 84.5429458732342, 79.8406560610386, 67.5175390790578, 46.9587107154906,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>88.820058997050154</v>
+      </c>
+      <c r="D3">
+        <v>93.687315634218294</v>
+      </c>
+      <c r="E3">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="F3">
+        <v>91.445427728613566</v>
+      </c>
+      <c r="G3">
+        <v>90.147492625368727</v>
+      </c>
+      <c r="H3">
+        <v>66.929817731987299</v>
+      </c>
+      <c r="I3">
+        <v>56.15602211091791</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.8200589970502, 93.6873156342183, 93.4808259587021, 91.4454277286136, 90.1474926253687, 66.9298177319873, 56.1560221109179,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>90.147492625368727</v>
+      </c>
+      <c r="D4">
+        <v>90.029498525073748</v>
+      </c>
+      <c r="E4">
+        <v>90.206489675516224</v>
+      </c>
+      <c r="F4">
+        <v>89.233038348082601</v>
+      </c>
+      <c r="G4">
+        <v>88.34808259587021</v>
+      </c>
+      <c r="H4">
+        <v>68.015380755888899</v>
+      </c>
+      <c r="I4">
+        <v>44.611112552876747</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.1474926253687, 90.0294985250737, 90.2064896755162, 89.2330383480826, 88.3480825958702, 68.0153807558889, 44.6111125528767,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92.831858407079636</v>
+      </c>
+      <c r="D5">
+        <v>92.330383480825958</v>
+      </c>
+      <c r="E5">
+        <v>92.359882005899706</v>
+      </c>
+      <c r="F5">
+        <v>91.474926253687315</v>
+      </c>
+      <c r="G5">
+        <v>88.731563421828909</v>
+      </c>
+      <c r="H5">
+        <v>71.314890267216839</v>
+      </c>
+      <c r="I5">
+        <v>55.489839877507578</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.8318584070796, 92.330383480826, 92.3598820058997, 91.4749262536873, 88.7315634218289, 71.3148902672168, 55.4898398775076,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>95.103244837758112</v>
+      </c>
+      <c r="D6">
+        <v>94.424778761061958</v>
+      </c>
+      <c r="E6">
+        <v>94.483775811209441</v>
+      </c>
+      <c r="F6">
+        <v>94.955752212389385</v>
+      </c>
+      <c r="G6">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="H6">
+        <v>71.929341949324822</v>
+      </c>
+      <c r="I6">
+        <v>54.064568032595432</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.1032448377581, 94.424778761062, 94.4837758112094, 94.9557522123894, 93.6283185840708, 71.9293419493248, 54.0645680325954,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>92.271559442555741</v>
+      </c>
+      <c r="D7">
+        <v>92.536873156342182</v>
+      </c>
+      <c r="E7">
+        <v>89.616519174041301</v>
+      </c>
+      <c r="F7">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="G7">
+        <v>86.902654867256643</v>
+      </c>
+      <c r="H7">
+        <v>63.151238332511532</v>
+      </c>
+      <c r="I7">
+        <v>49.297744790179848</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.2715594425557, 92.5368731563422, 89.6165191740413, 93.6283185840708, 86.9026548672566, 63.1512383325115, 49.2977447901798,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>91.91740412979351</v>
+      </c>
+      <c r="D8">
+        <v>91.710914454277287</v>
+      </c>
+      <c r="E8">
+        <v>92.094395280236</v>
+      </c>
+      <c r="F8">
+        <v>92.477876106194685</v>
+      </c>
+      <c r="G8">
+        <v>90.324483775811217</v>
+      </c>
+      <c r="H8">
+        <v>78.157337001185141</v>
+      </c>
+      <c r="I8">
+        <v>70.718431820344478</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.9174041297935, 91.7109144542773, 92.094395280236, 92.4778761061947, 90.3244837758112, 78.1573370011851, 70.7184318203445,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>95.958702064896755</v>
+      </c>
+      <c r="D9">
+        <v>94.572271386430685</v>
+      </c>
+      <c r="E9">
+        <v>95.309734513274336</v>
+      </c>
+      <c r="F9">
+        <v>95.044766823242412</v>
+      </c>
+      <c r="G9">
+        <v>95.191740412979357</v>
+      </c>
+      <c r="H9">
+        <v>69.464614745802294</v>
+      </c>
+      <c r="I9">
+        <v>55.888286230849737</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.9587020648968, 94.5722713864307, 95.3097345132743, 95.0447668232424, 95.1917404129794, 69.4646147458023, 55.8882862308497,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>96.843657817109147</v>
+      </c>
+      <c r="D10">
+        <v>97.315634218289091</v>
+      </c>
+      <c r="E10">
+        <v>97.227138643067846</v>
+      </c>
+      <c r="F10">
+        <v>96.460176991150448</v>
+      </c>
+      <c r="G10">
+        <v>94.247787610619469</v>
+      </c>
+      <c r="H10">
+        <v>76.715715533871403</v>
+      </c>
+      <c r="I10">
+        <v>62.699331309094383</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.8436578171091, 97.3156342182891, 97.2271386430678, 96.4601769911504, 94.2477876106195, 76.7157155338714, 62.6993313090944,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>93.421828908554573</v>
+      </c>
+      <c r="D11">
+        <v>93.628318584070797</v>
+      </c>
+      <c r="E11">
+        <v>93.274336283185832</v>
+      </c>
+      <c r="F11">
+        <v>92.802359882005902</v>
+      </c>
+      <c r="G11">
+        <v>90.413325374786979</v>
+      </c>
+      <c r="H11">
+        <v>72.089291429856672</v>
+      </c>
+      <c r="I11">
+        <v>52.767497988736928</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.4218289085546, 93.6283185840708, 93.2743362831858, 92.8023598820059, 90.413325374787, 72.0892914298567, 52.7674979887369,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>88.495748233116203</v>
+      </c>
+      <c r="D12">
+        <v>88.643067846607664</v>
+      </c>
+      <c r="E12">
+        <v>88.08259587020649</v>
+      </c>
+      <c r="F12">
+        <v>88.64324085848493</v>
+      </c>
+      <c r="G12">
+        <v>85.604719764011804</v>
+      </c>
+      <c r="H12">
+        <v>67.659841348108543</v>
+      </c>
+      <c r="I12">
+        <v>49.965484130485557</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.4957482331162, 88.6430678466077, 88.0825958702065, 88.6432408584849, 85.6047197640118, 67.6598413481085, 49.9654841304856,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>93.864306784660769</v>
+      </c>
+      <c r="D13">
+        <v>94.159292035398238</v>
+      </c>
+      <c r="E13">
+        <v>93.539823008849552</v>
+      </c>
+      <c r="F13">
+        <v>95.103763873389909</v>
+      </c>
+      <c r="G13">
+        <v>91.238938053097343</v>
+      </c>
+      <c r="H13">
+        <v>70.668517893753403</v>
+      </c>
+      <c r="I13">
+        <v>51.567574113962927</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.8643067846608, 94.1592920353982, 93.5398230088496, 95.1037638733899, 91.2389380530973, 70.6685178937534, 51.5675741139629,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>92.271386430678461</v>
+      </c>
+      <c r="D14">
+        <v>91.799410029498532</v>
+      </c>
+      <c r="E14">
+        <v>91.799410029498532</v>
+      </c>
+      <c r="F14">
+        <v>90.26548672566372</v>
+      </c>
+      <c r="G14">
+        <v>91.150442477876112</v>
+      </c>
+      <c r="H14">
+        <v>67.541328212181753</v>
+      </c>
+      <c r="I14">
+        <v>44.256092180728203</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.2713864306785, 91.7994100294985, 91.7994100294985, 90.2654867256637, 91.1504424778761, 67.5413282121818, 44.2560921807282,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>85.191913424856622</v>
+      </c>
+      <c r="D15">
+        <v>82.832896478343244</v>
+      </c>
+      <c r="E15">
+        <v>79.528196610697321</v>
+      </c>
+      <c r="F15">
+        <v>88.090554416560707</v>
+      </c>
+      <c r="G15">
+        <v>89.262882896910881</v>
+      </c>
+      <c r="H15">
+        <v>67.569615654114656</v>
+      </c>
+      <c r="I15">
+        <v>48.707428264950387</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    85.1919134248566, 82.8328964783432, 79.5281966106973, 88.0905544165607, 89.2628828969109, 67.5696156541147, 48.7074282649504,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>86.489675516224196</v>
+      </c>
+      <c r="D16">
+        <v>89.793510324483776</v>
+      </c>
+      <c r="E16">
+        <v>90.471976401179944</v>
+      </c>
+      <c r="F16">
+        <v>83.274336283185832</v>
+      </c>
+      <c r="G16">
+        <v>86.578171091445427</v>
+      </c>
+      <c r="H16">
+        <v>66.12418792550109</v>
+      </c>
+      <c r="I16">
+        <v>52.69604408342633</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    86.4896755162242, 89.7935103244838, 90.4719764011799, 83.2743362831858, 86.5781710914454, 66.1241879255011, 52.6960440834263,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>94.778761061946895</v>
+      </c>
+      <c r="D17">
+        <v>93.864306784660769</v>
+      </c>
+      <c r="E17">
+        <v>95.398230088495581</v>
+      </c>
+      <c r="F17">
+        <v>94.39528023598821</v>
+      </c>
+      <c r="G17">
+        <v>90.013667938303968</v>
+      </c>
+      <c r="H17">
+        <v>63.949082604520797</v>
+      </c>
+      <c r="I17">
+        <v>56.013200806235353</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.7787610619469, 93.8643067846608, 95.3982300884956, 94.3952802359882, 90.013667938304, 63.9490826045208, 56.0132008062354,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>94.395453247865476</v>
+      </c>
+      <c r="D18">
+        <v>90.796633188868412</v>
+      </c>
+      <c r="E18">
+        <v>93.895362416629908</v>
+      </c>
+      <c r="F18">
+        <v>93.245875829375692</v>
+      </c>
+      <c r="G18">
+        <v>80.022924073737656</v>
+      </c>
+      <c r="H18">
+        <v>64.668292978312962</v>
+      </c>
+      <c r="I18">
+        <v>39.23961279941868</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.3954532478655, 90.7966331888684, 93.8953624166299, 93.2458758293757, 80.0229240737377, 64.668292978313, 39.2396127994187,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>94.896755162241888</v>
+      </c>
+      <c r="D19">
+        <v>95.929203539823021</v>
+      </c>
+      <c r="E19">
+        <v>95.663716814159301</v>
+      </c>
+      <c r="F19">
+        <v>96.106194690265482</v>
+      </c>
+      <c r="G19">
+        <v>92.743362831858406</v>
+      </c>
+      <c r="H19">
+        <v>64.717947387088117</v>
+      </c>
+      <c r="I19">
+        <v>49.348610282095862</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.8967551622419, 95.929203539823, 95.6637168141593, 96.1061946902655, 92.7433628318584, 64.7179473870881, 49.3486102820959,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>91.740412979351035</v>
+      </c>
+      <c r="D20">
+        <v>92.271386430678461</v>
+      </c>
+      <c r="E20">
+        <v>91.268436578171091</v>
+      </c>
+      <c r="F20">
+        <v>88.43657817109144</v>
+      </c>
+      <c r="G20">
+        <v>88.525073746312685</v>
+      </c>
+      <c r="H20">
+        <v>69.554494416041649</v>
+      </c>
+      <c r="I20">
+        <v>53.253661363852629</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.740412979351, 92.2713864306785, 91.2684365781711, 88.4365781710914, 88.5250737463127, 69.5544944160416, 53.2536613638526,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>84.838277147726188</v>
+      </c>
+      <c r="D21">
+        <v>86.87454043720102</v>
+      </c>
+      <c r="E21">
+        <v>87.970657185615806</v>
+      </c>
+      <c r="F21">
+        <v>85.019247571345772</v>
+      </c>
+      <c r="G21">
+        <v>78.138911236256376</v>
+      </c>
+      <c r="H21">
+        <v>64.629105788112355</v>
+      </c>
+      <c r="I21">
+        <v>47.106376352736618</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    84.8382771477262, 86.874540437201, 87.9706571856158, 85.0192475713458, 78.1389112362564, 64.6291057881124, 47.1063763527366,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>86.756546336906041</v>
+      </c>
+      <c r="D22">
+        <v>88.731563421828909</v>
+      </c>
+      <c r="E22">
+        <v>88.525073746312685</v>
+      </c>
+      <c r="F22">
+        <v>87.761399320063319</v>
+      </c>
+      <c r="G22">
+        <v>86.935094594243893</v>
+      </c>
+      <c r="H22">
+        <v>73.116722462997089</v>
+      </c>
+      <c r="I22">
+        <v>64.616389415133341</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    86.756546336906, 88.7315634218289, 88.5250737463127, 87.7613993200633, 86.9350945942439, 73.1167224629971, 64.6163894151333,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>91.002949852507385</v>
+      </c>
+      <c r="D23">
+        <v>90.471976401179944</v>
+      </c>
+      <c r="E23">
+        <v>90.973451327433622</v>
+      </c>
+      <c r="F23">
+        <v>91.297935103244839</v>
+      </c>
+      <c r="G23">
+        <v>89.469372572427091</v>
+      </c>
+      <c r="H23">
+        <v>61.648024636891321</v>
+      </c>
+      <c r="I23">
+        <v>47.816590108910972</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.0029498525074, 90.4719764011799, 90.9734513274336, 91.2979351032448, 89.4693725724271, 61.6480246368913, 47.816590108911,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="D24">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="E24">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="F24">
+        <v>92.949852507374629</v>
+      </c>
+      <c r="G24">
+        <v>90.855457227138643</v>
+      </c>
+      <c r="H24">
+        <v>63.267848337788386</v>
+      </c>
+      <c r="I24">
+        <v>54.269673613093538</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.3628318584071, 93.7463126843658, 93.1268436578171, 92.9498525073746, 90.8554572271386, 63.2678483377884, 54.2696736130935,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>93.392330383480825</v>
+      </c>
+      <c r="D25">
+        <v>92.713864306784657</v>
+      </c>
+      <c r="E25">
+        <v>91.032448377581119</v>
+      </c>
+      <c r="F25">
+        <v>89.380530973451329</v>
+      </c>
+      <c r="G25">
+        <v>86.873156342182895</v>
+      </c>
+      <c r="H25">
+        <v>62.942326490713583</v>
+      </c>
+      <c r="I25">
+        <v>50.587202311438681</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.3923303834808, 92.7138643067847, 91.0324483775811, 89.3805309734513, 86.8731563421829, 62.9423264907136, 50.5872023114387,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>90.531146463204692</v>
+      </c>
+      <c r="D26">
+        <v>91.35779721277865</v>
+      </c>
+      <c r="E26">
+        <v>89.764011799410028</v>
+      </c>
+      <c r="F26">
+        <v>92.241887905604727</v>
+      </c>
+      <c r="G26">
+        <v>90.82734279708302</v>
+      </c>
+      <c r="H26">
+        <v>74.269933130909436</v>
+      </c>
+      <c r="I26">
+        <v>63.080909004403154</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.5311464632047, 91.3577972127786, 89.76401179941, 92.2418879056047, 90.827342797083, 74.2699331309094, 63.0809090044032,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>83.008849557522126</v>
+      </c>
+      <c r="D27">
+        <v>81.946902654867259</v>
+      </c>
+      <c r="E27">
+        <v>81.802697255166578</v>
+      </c>
+      <c r="F27">
+        <v>82.743362831858406</v>
+      </c>
+      <c r="G27">
+        <v>73.569321533923301</v>
+      </c>
+      <c r="H27">
+        <v>61.201048451976227</v>
+      </c>
+      <c r="I27">
+        <v>51.150442477876098</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    83.0088495575221, 81.9469026548673, 81.8026972551666, 82.7433628318584, 73.5693215339233, 61.2010484519762, 51.1504424778761,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>87.492625368731552</v>
+      </c>
+      <c r="D28">
+        <v>86.371681415929203</v>
+      </c>
+      <c r="E28">
+        <v>85.191913424856608</v>
+      </c>
+      <c r="F28">
+        <v>85.604892775889056</v>
+      </c>
+      <c r="G28">
+        <v>84.779280097578706</v>
+      </c>
+      <c r="H28">
+        <v>58.649209768250593</v>
+      </c>
+      <c r="I28">
+        <v>51.151134525385167</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    87.4926253687316, 86.3716814159292, 85.1919134248566, 85.6048927758891, 84.7792800975787, 58.6492097682506, 51.1511345253852,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>98.938053097345133</v>
+      </c>
+      <c r="D29">
+        <v>98.525073746312685</v>
+      </c>
+      <c r="E29">
+        <v>98.053097345132741</v>
+      </c>
+      <c r="F29">
+        <v>98.495575221238937</v>
+      </c>
+      <c r="G29">
+        <v>96.047716675749797</v>
+      </c>
+      <c r="H29">
+        <v>90.593776762774766</v>
+      </c>
+      <c r="I29">
+        <v>89.772662393273293</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    98.9380530973451, 98.5250737463127, 98.0530973451327, 98.4955752212389, 96.0477166757498, 90.5937767627748, 89.7726623932733,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>99.233038348082601</v>
+      </c>
+      <c r="D30">
+        <v>98.702064896755161</v>
+      </c>
+      <c r="E30">
+        <v>98.849557522123888</v>
+      </c>
+      <c r="F30">
+        <v>99.144542772861357</v>
+      </c>
+      <c r="G30">
+        <v>98.112094395280238</v>
+      </c>
+      <c r="H30">
+        <v>89.85596761217657</v>
+      </c>
+      <c r="I30">
+        <v>87.44366300746546</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.2330383480826, 98.7020648967552, 98.8495575221239, 99.1445427728614, 98.1120943952802, 89.8559676121766, 87.4436630074655,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>95.516224188790559</v>
+      </c>
+      <c r="D31">
+        <v>96.548672566371678</v>
+      </c>
+      <c r="E31">
+        <v>97.168141592920364</v>
+      </c>
+      <c r="F31">
+        <v>97.109144542772853</v>
+      </c>
+      <c r="G31">
+        <v>96.430851477953951</v>
+      </c>
+      <c r="H31">
+        <v>92.806685178937528</v>
+      </c>
+      <c r="I31">
+        <v>91.926227735534042</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.5162241887906, 96.5486725663717, 97.1681415929204, 97.1091445427729, 96.430851477954, 92.8066851789375, 91.926227735534,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>91.673641928851751</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>91.867395046669955</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>91.50381635365936</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>91.379175713746079</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>88.831829571766775</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>70.023970795595105</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>56.420684146633334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C574921-3866-489F-96C3-B7575D3CA140}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>88.761061946902657</v>
       </c>
       <c r="D2">
@@ -5232,6 +6357,1995 @@
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    95.3392330383481, 95.811209439528, 94.424778761062, 95.8407079646018, 94.6017699115044, 90.7768233289215, 71.5305495722281,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>92.522198865618762</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.258701776543617</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>91.286063604933133</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>87.347272323578352</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>80.924079504724673</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>68.770987061595122</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>53.587911660135468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D976F3DF-D922-40B9-96BA-1E648C061003}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>85.60471976401179</v>
+      </c>
+      <c r="D2">
+        <v>89.55769513577107</v>
+      </c>
+      <c r="E2">
+        <v>90.442477876106196</v>
+      </c>
+      <c r="F2">
+        <v>86.430678466076699</v>
+      </c>
+      <c r="G2">
+        <v>88.495575221238937</v>
+      </c>
+      <c r="H2">
+        <v>69.940743432036612</v>
+      </c>
+      <c r="I2">
+        <v>58.494883173729868</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    85.6047197640118, 89.5576951357711, 90.4424778761062, 86.4306784660767, 88.4955752212389, 69.9407434320366, 58.4948831737299,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>93.657817109144545</v>
+      </c>
+      <c r="D3">
+        <v>92.153392330383483</v>
+      </c>
+      <c r="E3">
+        <v>92.271386430678461</v>
+      </c>
+      <c r="F3">
+        <v>90.737463126843664</v>
+      </c>
+      <c r="G3">
+        <v>86.99132345435514</v>
+      </c>
+      <c r="H3">
+        <v>67.156203773389038</v>
+      </c>
+      <c r="I3">
+        <v>50.896893571743703</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.6578171091445, 92.1533923303835, 92.2713864306785, 90.7374631268437, 86.9913234543551, 67.156203773389, 50.8968935717437,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>88.34808259587021</v>
+      </c>
+      <c r="D4">
+        <v>88.908554572271385</v>
+      </c>
+      <c r="E4">
+        <v>88.318584070796462</v>
+      </c>
+      <c r="F4">
+        <v>87.728613569321539</v>
+      </c>
+      <c r="G4">
+        <v>84.21828908554572</v>
+      </c>
+      <c r="H4">
+        <v>79.035372278306909</v>
+      </c>
+      <c r="I4">
+        <v>61.542314379882178</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.3480825958702, 88.9085545722714, 88.3185840707965, 87.7286135693215, 84.2182890855457, 79.0353722783069, 61.5423143798822,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92.035398230088504</v>
+      </c>
+      <c r="D5">
+        <v>91.681415929203538</v>
+      </c>
+      <c r="E5">
+        <v>90.884955752212392</v>
+      </c>
+      <c r="F5">
+        <v>90.649832611008748</v>
+      </c>
+      <c r="G5">
+        <v>73.434891305288104</v>
+      </c>
+      <c r="H5">
+        <v>70.576994610680032</v>
+      </c>
+      <c r="I5">
+        <v>53.545705412676583</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.0353982300885, 91.6814159292035, 90.8849557522124, 90.6498326110087, 73.4348913052881, 70.57699461068, 53.5457054126766,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>94.719764011799413</v>
+      </c>
+      <c r="D6">
+        <v>95.103244837758112</v>
+      </c>
+      <c r="E6">
+        <v>94.39528023598821</v>
+      </c>
+      <c r="F6">
+        <v>93.156342182890853</v>
+      </c>
+      <c r="G6">
+        <v>90.090571717748418</v>
+      </c>
+      <c r="H6">
+        <v>65.451863770447829</v>
+      </c>
+      <c r="I6">
+        <v>46.695992179863147</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.7197640117994, 95.1032448377581, 94.3952802359882, 93.1563421828909, 90.0905717177484, 65.4518637704478, 46.6959921798631,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>93.244837758112084</v>
+      </c>
+      <c r="D7">
+        <v>93.569321533923301</v>
+      </c>
+      <c r="E7">
+        <v>93.687315634218294</v>
+      </c>
+      <c r="F7">
+        <v>89.176290452339543</v>
+      </c>
+      <c r="G7">
+        <v>82.10278635628336</v>
+      </c>
+      <c r="H7">
+        <v>60.740058305002641</v>
+      </c>
+      <c r="I7">
+        <v>47.408455090441961</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.2448377581121, 93.5693215339233, 93.6873156342183, 89.1762904523395, 82.1027863562834, 60.7400583050026, 47.408455090442,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>90.619469026548671</v>
+      </c>
+      <c r="D8">
+        <v>92.831858407079636</v>
+      </c>
+      <c r="E8">
+        <v>92.212389380530979</v>
+      </c>
+      <c r="F8">
+        <v>92.772861356932154</v>
+      </c>
+      <c r="G8">
+        <v>85.273575030925869</v>
+      </c>
+      <c r="H8">
+        <v>77.896521596207577</v>
+      </c>
+      <c r="I8">
+        <v>69.06547634495108</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.6194690265487, 92.8318584070796, 92.212389380531, 92.7728613569322, 85.2735750309259, 77.8965215962076, 69.0654763449511,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>96.607669616519175</v>
+      </c>
+      <c r="D9">
+        <v>95.899705014749259</v>
+      </c>
+      <c r="E9">
+        <v>95.575221238938042</v>
+      </c>
+      <c r="F9">
+        <v>95.489666865630312</v>
+      </c>
+      <c r="G9">
+        <v>93.044403498300156</v>
+      </c>
+      <c r="H9">
+        <v>79.256394951513428</v>
+      </c>
+      <c r="I9">
+        <v>58.013564131177603</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.6076696165192, 95.8997050147493, 95.575221238938, 95.4896668656303, 93.0444034983002, 79.2563949515134, 58.0135641311776,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>97.669616519174042</v>
+      </c>
+      <c r="D10">
+        <v>97.079646017699105</v>
+      </c>
+      <c r="E10">
+        <v>97.463126843657818</v>
+      </c>
+      <c r="F10">
+        <v>92.005899705014741</v>
+      </c>
+      <c r="G10">
+        <v>91.453040251213253</v>
+      </c>
+      <c r="H10">
+        <v>75.887680689279321</v>
+      </c>
+      <c r="I10">
+        <v>61.606155762593097</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    97.669616519174, 97.0796460176991, 97.4631268436578, 92.0058997050147, 91.4530402512133, 75.8876806892793, 61.6061557625931,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>94.483775811209441</v>
+      </c>
+      <c r="D11">
+        <v>96.017699115044252</v>
+      </c>
+      <c r="E11">
+        <v>96.548672566371678</v>
+      </c>
+      <c r="F11">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="G11">
+        <v>92.449415652384545</v>
+      </c>
+      <c r="H11">
+        <v>81.059438230434509</v>
+      </c>
+      <c r="I11">
+        <v>51.559442555731451</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.4837758112094, 96.0176991150443, 96.5486725663717, 95.6047197640118, 92.4494156523845, 81.0594382304345, 51.5594425557315,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>89.675862247943314</v>
+      </c>
+      <c r="D12">
+        <v>89.882005899705021</v>
+      </c>
+      <c r="E12">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="F12">
+        <v>88.053443368887272</v>
+      </c>
+      <c r="G12">
+        <v>84.896928174119154</v>
+      </c>
+      <c r="H12">
+        <v>68.187700585645203</v>
+      </c>
+      <c r="I12">
+        <v>44.803934290089011</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    89.6758622479433, 89.882005899705, 88.4660766961652, 88.0534433688873, 84.8969281741192, 68.1877005856452, 44.803934290089,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>95.604892775889056</v>
+      </c>
+      <c r="D13">
+        <v>94.454277286135692</v>
+      </c>
+      <c r="E13">
+        <v>95.250737463126853</v>
+      </c>
+      <c r="F13">
+        <v>94.129793510324475</v>
+      </c>
+      <c r="G13">
+        <v>88.879056047197636</v>
+      </c>
+      <c r="H13">
+        <v>70.575091480030096</v>
+      </c>
+      <c r="I13">
+        <v>47.946349016859998</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.6048927758891, 94.4542772861357, 95.2507374631269, 94.1297935103245, 88.8790560471976, 70.5750914800301, 47.94634901686,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>92.035398230088489</v>
+      </c>
+      <c r="D14">
+        <v>89.380530973451329</v>
+      </c>
+      <c r="E14">
+        <v>89.056047197640126</v>
+      </c>
+      <c r="F14">
+        <v>87.286308705092608</v>
+      </c>
+      <c r="G14">
+        <v>82.54621579771451</v>
+      </c>
+      <c r="H14">
+        <v>63.763700378030947</v>
+      </c>
+      <c r="I14">
+        <v>49.574650299743077</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.0353982300885, 89.3805309734513, 89.0560471976401, 87.2863087050926, 82.5462157977145, 63.7637003780309, 49.5746502997431,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>92.507374631268434</v>
+      </c>
+      <c r="D15">
+        <v>91.239111064974608</v>
+      </c>
+      <c r="E15">
+        <v>90.147665637245993</v>
+      </c>
+      <c r="F15">
+        <v>82.972517063296394</v>
+      </c>
+      <c r="G15">
+        <v>77.49643163003141</v>
+      </c>
+      <c r="H15">
+        <v>61.455721935310862</v>
+      </c>
+      <c r="I15">
+        <v>47.739686329466522</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.5073746312684, 91.2391110649746, 90.147665637246, 82.9725170632964, 77.4964316300314, 61.4557219353109, 47.7396863294665,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>91.238938053097343</v>
+      </c>
+      <c r="D16">
+        <v>90.530973451327441</v>
+      </c>
+      <c r="E16">
+        <v>92.153392330383483</v>
+      </c>
+      <c r="F16">
+        <v>89.469026548672574</v>
+      </c>
+      <c r="G16">
+        <v>85.575567262692587</v>
+      </c>
+      <c r="H16">
+        <v>61.337035787506807</v>
+      </c>
+      <c r="I16">
+        <v>46.078599295841663</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.2389380530973, 90.5309734513274, 92.1533923303835, 89.4690265486726, 85.5755672626926, 61.3370357875068, 46.0785992958417,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>96.076696165191748</v>
+      </c>
+      <c r="D17">
+        <v>95.958702064896755</v>
+      </c>
+      <c r="E17">
+        <v>94.896755162241888</v>
+      </c>
+      <c r="F17">
+        <v>95.250737463126853</v>
+      </c>
+      <c r="G17">
+        <v>88.731563421828895</v>
+      </c>
+      <c r="H17">
+        <v>71.699236152561866</v>
+      </c>
+      <c r="I17">
+        <v>56.443048815301168</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.0766961651917, 95.9587020648968, 94.8967551622419, 95.2507374631269, 88.7315634218289, 71.6992361525619, 56.4430488153012,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>93.068019619546888</v>
+      </c>
+      <c r="D18">
+        <v>91.977093227450069</v>
+      </c>
+      <c r="E18">
+        <v>91.682627012344398</v>
+      </c>
+      <c r="F18">
+        <v>89.031739028884331</v>
+      </c>
+      <c r="G18">
+        <v>85.028763224595366</v>
+      </c>
+      <c r="H18">
+        <v>66.947118919713844</v>
+      </c>
+      <c r="I18">
+        <v>48.296698068322392</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.0680196195469, 91.9770932274501, 91.6826270123444, 89.0317390288843, 85.0287632245954, 66.9471189197138, 48.2966980683224,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>97.138643067846601</v>
+      </c>
+      <c r="D19">
+        <v>96.902654867256643</v>
+      </c>
+      <c r="E19">
+        <v>96.607669616519175</v>
+      </c>
+      <c r="F19">
+        <v>93.569321533923301</v>
+      </c>
+      <c r="G19">
+        <v>94.306784660766965</v>
+      </c>
+      <c r="H19">
+        <v>70.49810119464702</v>
+      </c>
+      <c r="I19">
+        <v>53.735066912343527</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    97.1386430678466, 96.9026548672566, 96.6076696165192, 93.5693215339233, 94.306784660767, 70.498101194647, 53.7350669123435,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>91.946902654867259</v>
+      </c>
+      <c r="D20">
+        <v>91.740412979351021</v>
+      </c>
+      <c r="E20">
+        <v>90.796633188868412</v>
+      </c>
+      <c r="F20">
+        <v>89.056047197640126</v>
+      </c>
+      <c r="G20">
+        <v>85.133089386586391</v>
+      </c>
+      <c r="H20">
+        <v>61.208487962698641</v>
+      </c>
+      <c r="I20">
+        <v>47.528006297632331</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.9469026548673, 91.740412979351, 90.7966331888684, 89.0560471976401, 85.1330893865864, 61.2084879626986, 47.5280062976323,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>89.794029360115573</v>
+      </c>
+      <c r="D21">
+        <v>90.826823761451223</v>
+      </c>
+      <c r="E21">
+        <v>91.150788501630629</v>
+      </c>
+      <c r="F21">
+        <v>86.548672566371678</v>
+      </c>
+      <c r="G21">
+        <v>77.512867758371613</v>
+      </c>
+      <c r="H21">
+        <v>61.39603283765431</v>
+      </c>
+      <c r="I21">
+        <v>41.863770447841247</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    89.7940293601156, 90.8268237614512, 91.1507885016306, 86.5486725663717, 77.5128677583716, 61.3960328376543, 41.8637704478412,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="D22">
+        <v>92.124412840941531</v>
+      </c>
+      <c r="E22">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="F22">
+        <v>91.863597435963968</v>
+      </c>
+      <c r="G22">
+        <v>85.581622678396883</v>
+      </c>
+      <c r="H22">
+        <v>71.977525757143226</v>
+      </c>
+      <c r="I22">
+        <v>56.603690343342073</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.3628318584071, 92.1244128409415, 92.5663716814159, 91.863597435964, 85.5816226783969, 71.9775257571432, 56.6036903433421,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>93.038348082595874</v>
+      </c>
+      <c r="D23">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="E23">
+        <v>90.471976401179944</v>
+      </c>
+      <c r="F23">
+        <v>90.589970501474937</v>
+      </c>
+      <c r="G23">
+        <v>87.020648967551622</v>
+      </c>
+      <c r="H23">
+        <v>65.289319111757024</v>
+      </c>
+      <c r="I23">
+        <v>50.820076298237879</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.0383480825959, 92.5663716814159, 90.4719764011799, 90.5899705014749, 87.0206489675516, 65.289319111757, 50.8200762982379,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>92.802359882005902</v>
+      </c>
+      <c r="D24">
+        <v>92.448377581120937</v>
+      </c>
+      <c r="E24">
+        <v>92.271386430678461</v>
+      </c>
+      <c r="F24">
+        <v>88.908554572271385</v>
+      </c>
+      <c r="G24">
+        <v>84.926253687315636</v>
+      </c>
+      <c r="H24">
+        <v>66.642271991972251</v>
+      </c>
+      <c r="I24">
+        <v>45.639754669158037</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.8023598820059, 92.4483775811209, 92.2713864306785, 88.9085545722714, 84.9262536873156, 66.6422719919723, 45.639754669158,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>94.306784660766965</v>
+      </c>
+      <c r="D25">
+        <v>91.976401179941007</v>
+      </c>
+      <c r="E25">
+        <v>91.91740412979351</v>
+      </c>
+      <c r="F25">
+        <v>89.144542772861357</v>
+      </c>
+      <c r="G25">
+        <v>79.033469147656987</v>
+      </c>
+      <c r="H25">
+        <v>60.948710628984678</v>
+      </c>
+      <c r="I25">
+        <v>55.381447936400832</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.306784660767, 91.976401179941, 91.9174041297935, 89.1445427728614, 79.033469147657, 60.9487106289847, 55.3814479364008,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>92.654867256637175</v>
+      </c>
+      <c r="D26">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="E26">
+        <v>92.035398230088489</v>
+      </c>
+      <c r="F26">
+        <v>92.153392330383483</v>
+      </c>
+      <c r="G26">
+        <v>90.974662410574481</v>
+      </c>
+      <c r="H26">
+        <v>78.989697142708849</v>
+      </c>
+      <c r="I26">
+        <v>65.925224266645913</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.6548672566372, 92.3008849557522, 92.0353982300885, 92.1533923303835, 90.9746624105745, 78.9896971427088, 65.9252242666459,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>83.893805309734518</v>
+      </c>
+      <c r="D27">
+        <v>82.123893805309734</v>
+      </c>
+      <c r="E27">
+        <v>84.454277286135692</v>
+      </c>
+      <c r="F27">
+        <v>82.835318644624948</v>
+      </c>
+      <c r="G27">
+        <v>80.682272337996011</v>
+      </c>
+      <c r="H27">
+        <v>60.001470600956758</v>
+      </c>
+      <c r="I27">
+        <v>56.797204128063392</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    83.8938053097345, 82.1238938053097, 84.4542772861357, 82.8353186446249, 80.682272337996, 60.0014706009568, 56.7972041280634,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>87.463126843657818</v>
+      </c>
+      <c r="D28">
+        <v>84.572271386430685</v>
+      </c>
+      <c r="E28">
+        <v>85.044247787610615</v>
+      </c>
+      <c r="F28">
+        <v>84.12979351032449</v>
+      </c>
+      <c r="G28">
+        <v>81.593093365859573</v>
+      </c>
+      <c r="H28">
+        <v>68.216507063209889</v>
+      </c>
+      <c r="I28">
+        <v>60.719469891608057</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    87.4631268436578, 84.5722713864307, 85.0442477876106, 84.1297935103245, 81.5930933658596, 68.2165070632099, 60.7194698916081,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>99.174041297935105</v>
+      </c>
+      <c r="D29">
+        <v>98.731563421828909</v>
+      </c>
+      <c r="E29">
+        <v>98.200762982378734</v>
+      </c>
+      <c r="F29">
+        <v>97.374631268436573</v>
+      </c>
+      <c r="G29">
+        <v>95.163452971046453</v>
+      </c>
+      <c r="H29">
+        <v>80.427512348722729</v>
+      </c>
+      <c r="I29">
+        <v>56.38439778890821</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.1740412979351, 98.7315634218289, 98.2007629823787, 97.3746312684366, 95.1634529710465, 80.4275123487227, 56.3843977889082,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>99.616519174041301</v>
+      </c>
+      <c r="D30">
+        <v>98.761061946902657</v>
+      </c>
+      <c r="E30">
+        <v>99.439701035476077</v>
+      </c>
+      <c r="F30">
+        <v>98.437097206723237</v>
+      </c>
+      <c r="G30">
+        <v>92.744400903121999</v>
+      </c>
+      <c r="H30">
+        <v>80.788069100943773</v>
+      </c>
+      <c r="I30">
+        <v>73.949601640152594</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.6165191740413, 98.7610619469027, 99.4397010354761, 98.4370972067232, 92.744400903122, 80.7880691009438, 73.9496016401526,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>94.749262536873147</v>
+      </c>
+      <c r="D31">
+        <v>95.988200589970504</v>
+      </c>
+      <c r="E31">
+        <v>95.663716814159301</v>
+      </c>
+      <c r="F31">
+        <v>95.457227138643063</v>
+      </c>
+      <c r="G31">
+        <v>96.195036289241258</v>
+      </c>
+      <c r="H31">
+        <v>92.899852074844944</v>
+      </c>
+      <c r="I31">
+        <v>65.342087734322959</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.7492625368731, 95.9882005899705, 95.6637168141593, 95.4572271386431, 96.1950362892413, 92.8998520748449, 65.342087734323,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>92.90466180503293</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.576285261983244</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.469101520486021</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>90.667136682266573</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>86.385868389864953</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>70.341681156411383</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>54.346721569102392</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26431625-FBD6-47F5-8D26-A6271774F98F}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>88.053097345132741</v>
+      </c>
+      <c r="D2">
+        <v>88.023598820058993</v>
+      </c>
+      <c r="E2">
+        <v>89.970501474926252</v>
+      </c>
+      <c r="F2">
+        <v>89.764184811287308</v>
+      </c>
+      <c r="G2">
+        <v>77.992975717783025</v>
+      </c>
+      <c r="H2">
+        <v>72.326144689832958</v>
+      </c>
+      <c r="I2">
+        <v>58.483983425462164</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L31" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
+        <v xml:space="preserve">    88.0530973451327, 88.023598820059, 89.9705014749263, 89.7641848112873, 77.992975717783, 72.326144689833, 58.4839834254622,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>94.12979351032449</v>
+      </c>
+      <c r="D3">
+        <v>92.595870206489678</v>
+      </c>
+      <c r="E3">
+        <v>92.566544693293196</v>
+      </c>
+      <c r="F3">
+        <v>90.560471976401175</v>
+      </c>
+      <c r="G3">
+        <v>85.584217856555853</v>
+      </c>
+      <c r="H3">
+        <v>64.798916945648315</v>
+      </c>
+      <c r="I3">
+        <v>55.524874782653832</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.1297935103245, 92.5958702064897, 92.5665446932932, 90.5604719764012, 85.5842178565559, 64.7989169456483, 55.5248747826538,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>88.584070796460168</v>
+      </c>
+      <c r="D4">
+        <v>88.731563421828909</v>
+      </c>
+      <c r="E4">
+        <v>87.197640117994098</v>
+      </c>
+      <c r="F4">
+        <v>86.224188790560476</v>
+      </c>
+      <c r="G4">
+        <v>84.247787610619469</v>
+      </c>
+      <c r="H4">
+        <v>76.160433913788182</v>
+      </c>
+      <c r="I4">
+        <v>58.62472858761754</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.5840707964602, 88.7315634218289, 87.1976401179941, 86.2241887905605, 84.2477876106195, 76.1604339137882, 58.6247285876175,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>92.330383480825958</v>
+      </c>
+      <c r="D5">
+        <v>92.477876106194685</v>
+      </c>
+      <c r="E5">
+        <v>91.415929203539832</v>
+      </c>
+      <c r="F5">
+        <v>89.68036055675222</v>
+      </c>
+      <c r="G5">
+        <v>82.782377010181762</v>
+      </c>
+      <c r="H5">
+        <v>71.839202761269561</v>
+      </c>
+      <c r="I5">
+        <v>49.557349112016539</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.330383480826, 92.4778761061947, 91.4159292035398, 89.6803605567522, 82.7823770101818, 71.8392027612696, 49.5573491120165,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>95.575221238938042</v>
+      </c>
+      <c r="D6">
+        <v>95.191740412979357</v>
+      </c>
+      <c r="E6">
+        <v>94.660766961651916</v>
+      </c>
+      <c r="F6">
+        <v>92.684365781710909</v>
+      </c>
+      <c r="G6">
+        <v>86.519693076929727</v>
+      </c>
+      <c r="H6">
+        <v>66.295729201809706</v>
+      </c>
+      <c r="I6">
+        <v>47.622557288557857</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.575221238938, 95.1917404129794, 94.6607669616519, 92.6843657817109, 86.5196930769297, 66.2957292018097, 47.6225572885579,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>88.525246758189951</v>
+      </c>
+      <c r="D7">
+        <v>94.188790560471972</v>
+      </c>
+      <c r="E7">
+        <v>93.598820058997049</v>
+      </c>
+      <c r="F7">
+        <v>90.914454277286126</v>
+      </c>
+      <c r="G7">
+        <v>80.315746676009297</v>
+      </c>
+      <c r="H7">
+        <v>64.183773216031284</v>
+      </c>
+      <c r="I7">
+        <v>40.108045917352229</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    88.52524675819, 94.188790560472, 93.598820058997, 90.9144542772861, 80.3157466760093, 64.1837732160313, 40.1080459173522,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>90.530973451327441</v>
+      </c>
+      <c r="D8">
+        <v>90.442477876106196</v>
+      </c>
+      <c r="E8">
+        <v>92.241887905604727</v>
+      </c>
+      <c r="F8">
+        <v>89.323437053953754</v>
+      </c>
+      <c r="G8">
+        <v>86.822636874021399</v>
+      </c>
+      <c r="H8">
+        <v>80.167908026886039</v>
+      </c>
+      <c r="I8">
+        <v>66.148409588318231</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.5309734513274, 90.4424778761062, 92.2418879056047, 89.3234370539538, 86.8226368740214, 80.167908026886, 66.1484095883182,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>95.752212389380531</v>
+      </c>
+      <c r="D9">
+        <v>94.86725663716814</v>
+      </c>
+      <c r="E9">
+        <v>95.899705014749273</v>
+      </c>
+      <c r="F9">
+        <v>90.826996773328489</v>
+      </c>
+      <c r="G9">
+        <v>87.058279050856839</v>
+      </c>
+      <c r="H9">
+        <v>79.047829133470003</v>
+      </c>
+      <c r="I9">
+        <v>59.133470012716373</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.7522123893805, 94.8672566371681, 95.8997050147493, 90.8269967733285, 87.0582790508568, 79.04782913347, 59.1334700127164,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>98.289085545722713</v>
+      </c>
+      <c r="D10">
+        <v>96.873156342182895</v>
+      </c>
+      <c r="E10">
+        <v>97.640117994100294</v>
+      </c>
+      <c r="F10">
+        <v>89.734513274336294</v>
+      </c>
+      <c r="G10">
+        <v>87.701537210529509</v>
+      </c>
+      <c r="H10">
+        <v>77.156290279327678</v>
+      </c>
+      <c r="I10">
+        <v>62.86801788942811</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    98.2890855457227, 96.8731563421829, 97.6401179941003, 89.7345132743363, 87.7015372105295, 77.1562902793277, 62.8680178894281,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>95.693215339233035</v>
+      </c>
+      <c r="D11">
+        <v>96.371681415929203</v>
+      </c>
+      <c r="E11">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="F11">
+        <v>92.537219180096713</v>
+      </c>
+      <c r="G11">
+        <v>91.269128625680153</v>
+      </c>
+      <c r="H11">
+        <v>79.73459978027492</v>
+      </c>
+      <c r="I11">
+        <v>52.483239474389919</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    95.693215339233, 96.3716814159292, 96.7846607669617, 92.5372191800967, 91.2691286256802, 79.7345997802749, 52.4832394743899,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>90.619469026548671</v>
+      </c>
+      <c r="D12">
+        <v>90.766961651917399</v>
+      </c>
+      <c r="E12">
+        <v>89.705014749262531</v>
+      </c>
+      <c r="F12">
+        <v>87.109144542772853</v>
+      </c>
+      <c r="G12">
+        <v>82.448550592998203</v>
+      </c>
+      <c r="H12">
+        <v>63.242675109646278</v>
+      </c>
+      <c r="I12">
+        <v>43.561709011323629</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.6194690265487, 90.7669616519174, 89.7050147492625, 87.1091445427729, 82.4485505929982, 63.2426751096463, 43.5617090113236,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>94.985250737463133</v>
+      </c>
+      <c r="D13">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="E13">
+        <v>95.250737463126853</v>
+      </c>
+      <c r="F13">
+        <v>93.362831858407077</v>
+      </c>
+      <c r="G13">
+        <v>88.889609771710838</v>
+      </c>
+      <c r="H13">
+        <v>71.281671986781888</v>
+      </c>
+      <c r="I13">
+        <v>46.795387503352103</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.9852507374631, 95.1327433628319, 95.2507374631269, 93.3628318584071, 88.8896097717108, 71.2816719867819, 46.7953875033521,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>92.005899705014741</v>
+      </c>
+      <c r="D14">
+        <v>89.08571873459114</v>
+      </c>
+      <c r="E14">
+        <v>89.793510324483776</v>
+      </c>
+      <c r="F14">
+        <v>88.702064896755161</v>
+      </c>
+      <c r="G14">
+        <v>82.51498715386812</v>
+      </c>
+      <c r="H14">
+        <v>62.207545047967542</v>
+      </c>
+      <c r="I14">
+        <v>52.274673656346508</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.0058997050147, 89.0857187345911, 89.7935103244838, 88.7020648967552, 82.5149871538681, 62.2075450479675, 52.2746736563465,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>91.82890855457228</v>
+      </c>
+      <c r="D15">
+        <v>89.911677436656035</v>
+      </c>
+      <c r="E15">
+        <v>90.649140563499685</v>
+      </c>
+      <c r="F15">
+        <v>84.130485557833552</v>
+      </c>
+      <c r="G15">
+        <v>75.20125606622895</v>
+      </c>
+      <c r="H15">
+        <v>61.461258315383347</v>
+      </c>
+      <c r="I15">
+        <v>53.340772844055742</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.8289085545723, 89.911677436656, 90.6491405634997, 84.1304855578336, 75.201256066229, 61.4612583153833, 53.3407728440557,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>90.530973451327426</v>
+      </c>
+      <c r="D16">
+        <v>91.681415929203538</v>
+      </c>
+      <c r="E16">
+        <v>90.060900180797418</v>
+      </c>
+      <c r="F16">
+        <v>86.786909921366103</v>
+      </c>
+      <c r="G16">
+        <v>81.33227796088201</v>
+      </c>
+      <c r="H16">
+        <v>53.471829341084273</v>
+      </c>
+      <c r="I16">
+        <v>44.634382650368948</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.5309734513274, 91.6814159292035, 90.0609001807974, 86.7869099213661, 81.332277960882, 53.4718293410843, 44.6343826503689,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>96.017699115044252</v>
+      </c>
+      <c r="D17">
+        <v>94.601769911504419</v>
+      </c>
+      <c r="E17">
+        <v>95.811209439528028</v>
+      </c>
+      <c r="F17">
+        <v>93.008849557522126</v>
+      </c>
+      <c r="G17">
+        <v>90.679677159837027</v>
+      </c>
+      <c r="H17">
+        <v>70.586769781745517</v>
+      </c>
+      <c r="I17">
+        <v>58.150330020155891</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.0176991150443, 94.6017699115044, 95.811209439528, 93.0088495575221, 90.679677159837, 70.5867697817455, 58.1503300201559,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>93.687315634218294</v>
+      </c>
+      <c r="D18">
+        <v>92.212735404285496</v>
+      </c>
+      <c r="E18">
+        <v>92.0655888026713</v>
+      </c>
+      <c r="F18">
+        <v>86.170382096730947</v>
+      </c>
+      <c r="G18">
+        <v>77.667972906340012</v>
+      </c>
+      <c r="H18">
+        <v>60.899229232086782</v>
+      </c>
+      <c r="I18">
+        <v>50.153894064827547</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.6873156342183, 92.2127354042855, 92.0655888026713, 86.1703820967309, 77.66797290634, 60.8992292320868, 50.1538940648275,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>96.430678466076699</v>
+      </c>
+      <c r="D19">
+        <v>96.342182890855455</v>
+      </c>
+      <c r="E19">
+        <v>96.814159292035399</v>
+      </c>
+      <c r="F19">
+        <v>95.280235988200587</v>
+      </c>
+      <c r="G19">
+        <v>89.648439865396753</v>
+      </c>
+      <c r="H19">
+        <v>73.207640204500038</v>
+      </c>
+      <c r="I19">
+        <v>54.933087656467613</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    96.4306784660767, 96.3421828908555, 96.8141592920354, 95.2802359882006, 89.6484398653968, 73.2076402045, 54.9330876564676,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>92.182890855457231</v>
+      </c>
+      <c r="D20">
+        <v>91.268436578171091</v>
+      </c>
+      <c r="E20">
+        <v>90.619469026548671</v>
+      </c>
+      <c r="F20">
+        <v>88.142111955985769</v>
+      </c>
+      <c r="G20">
+        <v>84.721148106817537</v>
+      </c>
+      <c r="H20">
+        <v>61.029593681606237</v>
+      </c>
+      <c r="I20">
+        <v>45.601951573975548</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.1828908554572, 91.2684365781711, 90.6194690265487, 88.1421119559858, 84.7211481068175, 61.0295936816062, 45.6019515739755,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>85.281620083218712</v>
+      </c>
+      <c r="D21">
+        <v>88.820578032681937</v>
+      </c>
+      <c r="E21">
+        <v>88.76175399441172</v>
+      </c>
+      <c r="F21">
+        <v>82.832031418956916</v>
+      </c>
+      <c r="G21">
+        <v>69.424562496215373</v>
+      </c>
+      <c r="H21">
+        <v>57.950068772221208</v>
+      </c>
+      <c r="I21">
+        <v>45.490531925016647</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    85.2816200832187, 88.8205780326819, 88.7617539944117, 82.8320314189569, 69.4245624962154, 57.9500687722212, 45.4905319250166,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>92.359882005899706</v>
+      </c>
+      <c r="D22">
+        <v>91.386603690343335</v>
+      </c>
+      <c r="E22">
+        <v>91.298108115122105</v>
+      </c>
+      <c r="F22">
+        <v>90.213583162484113</v>
+      </c>
+      <c r="G22">
+        <v>87.084317338385276</v>
+      </c>
+      <c r="H22">
+        <v>72.742930302165249</v>
+      </c>
+      <c r="I22">
+        <v>56.627479476466057</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.3598820058997, 91.3866036903433, 91.2981081151221, 90.2135831624841, 87.0843173383853, 72.7429303021652, 56.6274794764661,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>91.179941002949846</v>
+      </c>
+      <c r="D23">
+        <v>92.595870206489678</v>
+      </c>
+      <c r="E23">
+        <v>90.589970501474937</v>
+      </c>
+      <c r="F23">
+        <v>90.501474926253678</v>
+      </c>
+      <c r="G23">
+        <v>85.493646138807435</v>
+      </c>
+      <c r="H23">
+        <v>67.587435877472984</v>
+      </c>
+      <c r="I23">
+        <v>56.09702506077042</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.1799410029498, 92.5958702064897, 90.5899705014749, 90.5014749262537, 85.4936461388074, 67.587435877473, 56.0970250607704,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>93.451327433628322</v>
+      </c>
+      <c r="D24">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="E24">
+        <v>92.271386430678461</v>
+      </c>
+      <c r="F24">
+        <v>89.646017699115049</v>
+      </c>
+      <c r="G24">
+        <v>82.663344838623175</v>
+      </c>
+      <c r="H24">
+        <v>69.00699833043538</v>
+      </c>
+      <c r="I24">
+        <v>46.049792818276977</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.4513274336283, 92.3008849557522, 92.2713864306785, 89.646017699115, 82.6633448386232, 69.0069983304354, 46.049792818277,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>94.247787610619469</v>
+      </c>
+      <c r="D25">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="E25">
+        <v>91.858407079646014</v>
+      </c>
+      <c r="F25">
+        <v>88.377581120943958</v>
+      </c>
+      <c r="G25">
+        <v>76.552478827671536</v>
+      </c>
+      <c r="H25">
+        <v>61.131584183254184</v>
+      </c>
+      <c r="I25">
+        <v>51.727091064801598</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.2477876106195, 91.6519174041298, 91.858407079646, 88.377581120944, 76.5524788276715, 61.1315841832542, 51.7270910648016,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>91.887905604719762</v>
+      </c>
+      <c r="D26">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="E26">
+        <v>93.421828908554573</v>
+      </c>
+      <c r="F26">
+        <v>90.855457227138643</v>
+      </c>
+      <c r="G26">
+        <v>88.024636891322587</v>
+      </c>
+      <c r="H26">
+        <v>77.930345418212966</v>
+      </c>
+      <c r="I26">
+        <v>67.747039334250289</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    91.8879056047198, 93.7463126843658, 93.4218289085546, 90.8554572271386, 88.0246368913226, 77.930345418213, 67.7470393342503,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>82.064896755162238</v>
+      </c>
+      <c r="D27">
+        <v>83.716987171169293</v>
+      </c>
+      <c r="E27">
+        <v>84.39528023598821</v>
+      </c>
+      <c r="F27">
+        <v>82.86152994403065</v>
+      </c>
+      <c r="G27">
+        <v>78.556475402036341</v>
+      </c>
+      <c r="H27">
+        <v>64.081955726260617</v>
+      </c>
+      <c r="I27">
+        <v>57.855517781295681</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    82.0648967551622, 83.7169871711693, 84.3952802359882, 82.8615299440307, 78.5564754020363, 64.0819557262606, 57.8555177812957,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>87.345132743362825</v>
+      </c>
+      <c r="D28">
+        <v>86.194690265486727</v>
+      </c>
+      <c r="E28">
+        <v>84.749435548750427</v>
+      </c>
+      <c r="F28">
+        <v>83.716814159292042</v>
+      </c>
+      <c r="G28">
+        <v>81.710914454277287</v>
+      </c>
+      <c r="H28">
+        <v>64.597012084879623</v>
+      </c>
+      <c r="I28">
+        <v>57.655948580870067</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    87.3451327433628, 86.1946902654867, 84.7494355487504, 83.716814159292, 81.7109144542773, 64.5970120848796, 57.6559485808701,</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>98.731563421828909</v>
+      </c>
+      <c r="D29">
+        <v>99.262536873156336</v>
+      </c>
+      <c r="E29">
+        <v>98.318584070796462</v>
+      </c>
+      <c r="F29">
+        <v>97.463126843657818</v>
+      </c>
+      <c r="G29">
+        <v>89.380703985328594</v>
+      </c>
+      <c r="H29">
+        <v>76.321334959644986</v>
+      </c>
+      <c r="I29">
+        <v>59.044628413740597</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    98.7315634218289, 99.2625368731563, 98.3185840707965, 97.4631268436578, 89.3807039853286, 76.321334959645, 59.0446284137406,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>99.410029498525063</v>
+      </c>
+      <c r="D30">
+        <v>99.469026548672574</v>
+      </c>
+      <c r="E30">
+        <v>99.321533923303832</v>
+      </c>
+      <c r="F30">
+        <v>97.640117994100294</v>
+      </c>
+      <c r="G30">
+        <v>90.707964601769916</v>
+      </c>
+      <c r="H30">
+        <v>80.707013036444948</v>
+      </c>
+      <c r="I30">
+        <v>72.860924402460228</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    99.4100294985251, 99.4690265486726, 99.3215339233038, 97.6401179941003, 90.7079646017699, 80.7070130364449, 72.8609244024602,</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>94.247787610619469</v>
+      </c>
+      <c r="D31">
+        <v>95.427728613569315</v>
+      </c>
+      <c r="E31">
+        <v>95.221238938053105</v>
+      </c>
+      <c r="F31">
+        <v>95.014749262536867</v>
+      </c>
+      <c r="G31">
+        <v>95.103244837758112</v>
+      </c>
+      <c r="H31">
+        <v>90.68763570619123</v>
+      </c>
+      <c r="I31">
+        <v>67.347641415583183</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    94.2477876106195, 95.4277286135693, 95.2212389380531, 95.0147492625369, 95.1032448377581, 90.6876357061912, 67.3476414155832,</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE(C2:C31)</f>
+        <v>92.532008639059754</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:I32" si="1">AVERAGE(D2:D31)</f>
+        <v>92.511359671508089</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>92.431794392685077</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>89.802189753659917</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>84.270019636848104</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>69.728111834877453</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>54.616816177763944</v>
       </c>
     </row>
   </sheetData>
